--- a/BOM/菠萝无刷一代 机械 +电控 物料表.xlsx
+++ b/BOM/菠萝无刷一代 机械 +电控 物料表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\py-apple-bldc-quadruped-robot\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074AC403-4C3D-4C2C-9A27-D72A82F6ABCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,191 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6701ZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6704ZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防松螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车车轮胶皮（足底防滑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据实际需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云台无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4008 150T（或类似参数电机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTD-3M 318 6MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M*35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械-单腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械-身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x5</t>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x6</t>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x7</t>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x8</t>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x9</t>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x10</t>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x11</t>
+  </si>
+  <si>
+    <t>此为单腿数量，四条腿数量需x12</t>
+  </si>
+  <si>
+    <t>电控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4S 16.8V电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于STM32F4 的Pyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯哥开源FOC无刷驱动板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见灯哥开源无刷驱动器GitHUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜邦线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +514,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>